--- a/eqServer/src/main/resources/Template.xlsx
+++ b/eqServer/src/main/resources/Template.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Sami-Programming\JAVA\eQuiz\eqCore\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Sami-Programming\JAVA\eQuiz\eqServer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qURnuFuKx0ul8JDw8fguIFiCj5b9j8lSkJbXvrK1pqd4zElNKvwf1PYtsP79ku4C8dYCwQqMYq+4crjI6JqxDQ==" workbookSaltValue="NmXmB18E0GtHhrVKdhtNxg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA911F-DB4B-427F-AEE1-7190332E926C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="365" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10400" tabRatio="411" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
-    <sheet name="Student List" sheetId="3" r:id="rId3"/>
-    <sheet name="Answers" sheetId="8" r:id="rId4"/>
-    <sheet name="Timer" sheetId="9" r:id="rId5"/>
+    <sheet name="BlackWhite_List" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>sharing folder</t>
   </si>
@@ -100,12 +106,6 @@
 - if the type is "Blank Field". then any choice of A,B,C,D,E, and F is an acceptable answer (note that eQuiz is ignoring letter case and any middle spaces (for example: 'My      book  ' = 'my Book')</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>On the following figure, what is the address of the cell that contains 30 as a value?</t>
   </si>
   <si>
@@ -119,60 +119,6 @@
   </si>
   <si>
     <t>D:\Dropbox\Sami-Programming\JAVA\eQuiz\data\cell.png</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
   </si>
   <si>
     <t>a2</t>
@@ -226,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -378,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -438,34 +384,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -808,156 +765,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>52</v>
+      <c r="B2" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>IF(B2 = "Sequence", "All student will beg all qestions in the same order.", "Each student will get different order of questions randomly." &amp; "This option is good to avoid cheating.")</f>
         <v>Each student will get different order of questions randomly.This option is good to avoid cheating.</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>51</v>
+      <c r="B3" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IF(B3 = "All Students", "Any student is allowed to join the exam",  IF(B3 ="White List", "Only Students who has listed in 'Student List' Sheet is allowed to join exam. Otherwise they will be rejected.", "Only Students who has listed in 'Student List' Sheet is NOT allowed to join exam. Thus, any other student can join the exam.") )</f>
         <v>Any student is allowed to join the exam</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>53</v>
+      <c r="B4" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IF(B4 = "Exam Level", "Specify the total time to be the time limit of the whole exam", "Secify time limit of each question in the [Questions] sheet" &amp; ". This mode will not allow student to review his answer after he moves to the next question. If the question time is expiered then the application will move the student into next question automatically.")</f>
         <v>Specify the total time to be the time limit of the whole exam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:3" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="28">
         <v>45</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="27">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="29">
         <v>123</v>
       </c>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>54</v>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>59</v>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="cyH+r25KG5q1Fjk/41Wyc+fUzGcjUbf0KqlgxwMZLvPDgGBXyIW2H3PeJfQPlBXGZ/8PaHZqPqIynlqsVFd/Bg==" saltValue="sVzJLxVeTfyccrD35TGxig==" spinCount="100000" sqref="C1:C4" name="Range1_1"/>
   </protectedRanges>
   <dataValidations xWindow="235" yWindow="490" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"All Students,White List,Black List,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sequence,Random"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Exam Level,Question Level"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -965,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -973,34 +931,34 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.90625" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="8.88671875" style="7" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.88671875" style="5" collapsed="1"/>
+    <col min="4" max="9" width="8.90625" style="7" collapsed="1"/>
+    <col min="10" max="10" width="12.90625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.90625" style="5" collapsed="1"/>
     <col min="12" max="12" width="10" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1038,34 +996,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="14">
         <v>1</v>
@@ -1079,18 +1037,18 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Multiple Choice,Blank Field"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Wrong Mark" error="The value should be 0 or more._x000a_non-Numeric values are not accepted." sqref="K3">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Wrong Mark" error="The value should be 0 or more._x000a_non-Numeric values are not accepted." sqref="K3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Time" error="This property is mandatory if the exam mode is set to 'Question Level'._x000a_put the value (in minutes) to be accepted" sqref="L3">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Time" error="This property is mandatory if the exam mode is set to 'Question Level'._x000a_put the value (in minutes) to be accepted" sqref="L3" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="D:\Dropbox\UBT\IT100-Computer Skills\midTerm-2\cell.png"/>
+    <hyperlink ref="J3" r:id="rId1" display="D:\Dropbox\UBT\IT100-Computer Skills\midTerm-2\cell.png" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1098,21 +1056,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
-    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.90625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="16.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,268 +1082,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>